--- a/test_players.xlsx
+++ b/test_players.xlsx
@@ -51,16 +51,16 @@
     <t>Opposition</t>
   </si>
   <si>
-    <t>London Superkings CC - 1st XI (A F)</t>
+    <t>Opposition 1</t>
   </si>
   <si>
     <t>Intraclub2 (A F)</t>
   </si>
   <si>
-    <t>Pacific CC - 1st XI (H F)</t>
-  </si>
-  <si>
-    <t>London Superkings CC - 2nd XI (A F)</t>
+    <t>Opposition 2</t>
+  </si>
+  <si>
+    <t>Opposition 3</t>
   </si>
   <si>
     <t>Available</t>
@@ -971,16 +971,16 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
